--- a/ceper_eco/dead_adult.xlsx
+++ b/ceper_eco/dead_adult.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\CEPER\ceper_eco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{709538A0-456D-48E6-BAA1-4DF71D675D44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4356EE-29FA-491E-A5C8-530E62808239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{18E0F985-1241-4830-9C28-45CA7CCBA22A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" r:id="rId1"/>
+    <sheet name="dic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="653">
   <si>
     <t>muni</t>
   </si>
@@ -1978,19 +1979,31 @@
   </si>
   <si>
     <t>Zacarias</t>
+  </si>
+  <si>
+    <t> Taxa de Mortalidade da População de 15 a 34 Anos (Por cem mil habitantes nessa faixa etária) (1980-2019) </t>
+  </si>
+  <si>
+    <t>Taxa de Mortalidade da População de 60 Anos e Mais (Por cem mil habitantes nessa faixa etária) (1980-2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2013,8 +2026,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2332,7 +2346,7 @@
   <dimension ref="A1:F646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F646"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15029,4 +15043,35 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74620DB1-D72E-4D36-A83C-0A5784EDDEA7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>